--- a/medicine/Premiers secours et secourisme/Couverture_antifeu/Couverture_antifeu.xlsx
+++ b/medicine/Premiers secours et secourisme/Couverture_antifeu/Couverture_antifeu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une couverture antifeu est un accessoire de lutte contre l'incendie. Son mode d'action consiste à étouffer le feu.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une couverture antifeu est constituée d'une matière textile ignifugée ou d'une matière peu ou pas combustible (fibre de verre enduite de silicone, par exemple). Ses dimensions permettent une manipulation aisée (environ 1 m x 1 m). Cette couverture répond à une norme COUVERTURE ANTI FEU NORME EN1869/2019 elle remplace la norme EN1869/1996.
-Un nouveau domaine d'application pour les grandes couvertures anti-incendie résistantes aux températures élevées est l'extinction des incendies de batteries au lithium, comme ceux qui peuvent se produire dans les voitures électriques, les scooters électriques ou les vélos électriques, ainsi que dans les chariots élévateurs, car il est très difficile de les éteindre durablement avec de l'eau d'extinction. Elles offrent une solution efficace pour stopper l'incendie et éviter qu'il ne se propage davantage. En outre, les couvertures anti-incendie peuvent contribuer à réduire le risque de propagation de l'incendie à l'intérieur d'un bâtiment ou à d'autres véhicules[1].
+Un nouveau domaine d'application pour les grandes couvertures anti-incendie résistantes aux températures élevées est l'extinction des incendies de batteries au lithium, comme ceux qui peuvent se produire dans les voitures électriques, les scooters électriques ou les vélos électriques, ainsi que dans les chariots élévateurs, car il est très difficile de les éteindre durablement avec de l'eau d'extinction. Elles offrent une solution efficace pour stopper l'incendie et éviter qu'il ne se propage davantage. En outre, les couvertures anti-incendie peuvent contribuer à réduire le risque de propagation de l'incendie à l'intérieur d'un bâtiment ou à d'autres véhicules.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cet objet est destiné à :
 éteindre le feu sur un être vivant, où elle constitue la solution la plus appropriée en absence de douche fixe de premiers secours ou de douche portative de secourisme, par comparaison à :
@@ -603,7 +621,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est légère et très peu encombrante une fois repliée.
 </t>
@@ -634,7 +654,9 @@
           <t>Limitations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Elle est dénuée de tout effet refroidissant limitant ainsi l'étendue des brûlures.
 Elle ne peut servir que contre les brûlures thermiques.
@@ -666,7 +688,9 @@
           <t>Mode d'emploi</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Présentation en sac
@@ -700,7 +724,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Une couverture antifeu n'est pas un jouet pour les enfants qui devraient être informés de son utilisation au même titre que de la manipulation d'un extincteur.
 Il ne faut pas confondre couverture antifeu et couverture de survie dorée/argentée (film plastique avec dépôt réflecteur d'aluminium).
